--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9598c5adf080dad/Dokumenter/skole/F18/projekt/Semesterprojekt4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F08B11-E8AC-4ED1-B35B-9BB21C823CFB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{32F08B11-E8AC-4ED1-B35B-9BB21C823CFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{9DA54926-CC3F-44BB-9E41-3E8D97A42FB8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00E1863B-46C4-4524-A5A4-AE92D22A1170}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -71,7 +71,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1692,15 +1692,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3698EAD-B7FD-4748-8027-18AA65B8FFCE}">
-  <dimension ref="B1:D49"/>
+  <dimension ref="B1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>2.504</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.1</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>8.999999999999897E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.2</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>8.999999999999897E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.3</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>1.1000000000000121E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.4</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>1.2999999999999901E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.5</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>1.1000000000000121E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.6</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1.4000000000000234E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.7</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.8</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1.0999999999999677E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.9</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1.6000000000000014E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1835,8 +1835,12 @@
         <f t="shared" si="0"/>
         <v>1.4000000000000234E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <f>SUM(D3:D12)</f>
+        <v>0.12000000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>1.2999999999999901E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1.2</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.3</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>1.6999999999999904E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.4</v>
       </c>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9598c5adf080dad/Dokumenter/skole/F18/projekt/Semesterprojekt4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{32F08B11-E8AC-4ED1-B35B-9BB21C823CFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{9DA54926-CC3F-44BB-9E41-3E8D97A42FB8}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{32F08B11-E8AC-4ED1-B35B-9BB21C823CFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{20C64C73-3045-442C-9001-90FBB12D6C29}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00E1863B-46C4-4524-A5A4-AE92D22A1170}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{00E1863B-46C4-4524-A5A4-AE92D22A1170}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3698EAD-B7FD-4748-8027-18AA65B8FFCE}">
   <dimension ref="B1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2224,4 +2231,355 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21463E3-C36A-40AB-A9B0-57B34F77B21B}">
+  <dimension ref="B2:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>-1.9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.319</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-1.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.3290000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-1.7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.339</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-1.6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.3490000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-1.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.3580000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-1.4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.3690000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-1.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.379</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-1.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>-0.9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.4209999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>-0.8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.431</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-0.7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.4420000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>-0.6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.452</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>-0.5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.4620000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>-0.4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.472</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>-0.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.4820000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>-0.2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.4929999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>-0.1</v>
+      </c>
+      <c r="C24">
+        <v>2.5030000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2.5129999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+      <c r="C26">
+        <v>2.5230000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <v>2.5329999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.3</v>
+      </c>
+      <c r="C28">
+        <v>2.544</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.4</v>
+      </c>
+      <c r="C29">
+        <v>2.5539999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <v>2.5649999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.6</v>
+      </c>
+      <c r="C31">
+        <v>2.5739999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.7</v>
+      </c>
+      <c r="C32">
+        <v>2.5840000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+      <c r="C33">
+        <v>2.5939999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.9</v>
+      </c>
+      <c r="C34">
+        <v>2.6040000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2.613</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C36">
+        <v>2.6240000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1.2</v>
+      </c>
+      <c r="C37">
+        <v>2.6339999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1.3</v>
+      </c>
+      <c r="C38">
+        <v>2.6440000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1.4</v>
+      </c>
+      <c r="C39">
+        <v>2.6549999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1.5</v>
+      </c>
+      <c r="C40">
+        <v>2.6659999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1.6</v>
+      </c>
+      <c r="C41">
+        <v>2.6760000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1.7</v>
+      </c>
+      <c r="C42">
+        <v>2.6859999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1.8</v>
+      </c>
+      <c r="C43">
+        <v>2.6960000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1.9</v>
+      </c>
+      <c r="C44">
+        <v>2.7069999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2.7170000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9598c5adf080dad/Dokumenter/skole/F18/projekt/Semesterprojekt4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{32F08B11-E8AC-4ED1-B35B-9BB21C823CFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{20C64C73-3045-442C-9001-90FBB12D6C29}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{32F08B11-E8AC-4ED1-B35B-9BB21C823CFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{538A2234-1A90-4058-A22F-A8B46139CF38}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{00E1863B-46C4-4524-A5A4-AE92D22A1170}"/>
   </bookViews>
@@ -805,7 +805,813 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> af sensor modul </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark2'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.51389216972878393"/>
+                  <c:y val="0.1199537037037037"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark2'!$B$3:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark2'!$C$3:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>2.319</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>2.3290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>2.339</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>2.3490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>2.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>2.3690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>2.379</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.000">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.000">
+                  <c:v>2.4209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.000">
+                  <c:v>2.431</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.000">
+                  <c:v>2.4420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.000">
+                  <c:v>2.452</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.000">
+                  <c:v>2.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000">
+                  <c:v>2.472</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.000">
+                  <c:v>2.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.000">
+                  <c:v>2.4929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.544</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.613</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.7069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.7170000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7914-49C8-BBCB-70DD10122117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="405637120"/>
+        <c:axId val="405637776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="405637120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Strøm(A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405637776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="405637776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Spændning(V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405637120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1361,6 +2167,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1382,6 +2704,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E596EC-2341-43D0-A7BB-AF5FF15BBEC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A795D60B-EFC5-4997-9806-605B46924941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,8 +3600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21463E3-C36A-40AB-A9B0-57B34F77B21B}">
   <dimension ref="B2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,5 +3944,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9598c5adf080dad/Dokumenter/skole/F18/projekt/Semesterprojekt4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{32F08B11-E8AC-4ED1-B35B-9BB21C823CFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{538A2234-1A90-4058-A22F-A8B46139CF38}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{32F08B11-E8AC-4ED1-B35B-9BB21C823CFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00CCADBA-33F6-45B1-9E20-295F3062E8B6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{00E1863B-46C4-4524-A5A4-AE92D22A1170}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>spændtest</t>
+  </si>
+  <si>
+    <t>bat/om</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>vind</t>
   </si>
 </sst>
 </file>
@@ -3598,13 +3610,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21463E3-C36A-40AB-A9B0-57B34F77B21B}">
-  <dimension ref="B2:C45"/>
+  <dimension ref="B2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3940,6 +3955,51 @@
       </c>
       <c r="C45">
         <v>2.7170000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>7.8079999999999998</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
